--- a/data/trans_dic/P16B97-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P16B97-Habitat-trans_dic.xlsx
@@ -690,7 +690,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>73,96; 100,0</t>
+          <t>73,52; 100,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -720,7 +720,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>86,5; 100,0</t>
+          <t>86,33; 100,0</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -815,12 +815,12 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>93,94; 100,0</t>
+          <t>94,04; 100,0</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>91,28; 100,0</t>
+          <t>90,17; 100,0</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -830,12 +830,12 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>96,88; 100,0</t>
+          <t>96,16; 100,0</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>94,07; 100,0</t>
+          <t>94,62; 100,0</t>
         </is>
       </c>
     </row>
@@ -915,12 +915,12 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>90,28; 100,0</t>
+          <t>91,18; 100,0</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>90,89; 100,0</t>
+          <t>90,92; 100,0</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -930,12 +930,12 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>93,72; 100,0</t>
+          <t>93,08; 100,0</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>92,11; 100,0</t>
+          <t>92,22; 100,0</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -945,7 +945,7 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>94,15; 99,34</t>
+          <t>94,57; 99,43</t>
         </is>
       </c>
     </row>
@@ -1020,7 +1020,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>92,6; 100,0</t>
+          <t>92,87; 100,0</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1035,12 +1035,12 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>91,6; 100,0</t>
+          <t>90,55; 100,0</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>93,18; 100,0</t>
+          <t>91,53; 100,0</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1050,12 +1050,12 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>93,63; 99,47</t>
+          <t>93,74; 99,47</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>94,44; 100,0</t>
+          <t>94,92; 100,0</t>
         </is>
       </c>
     </row>
@@ -1140,32 +1140,32 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>85,77; 100,0</t>
+          <t>85,89; 100,0</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>94,35; 100,0</t>
+          <t>93,79; 100,0</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>90,27; 100,0</t>
+          <t>91,69; 100,0</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>90,53; 100,0</t>
+          <t>92,11; 100,0</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>96,44; 100,0</t>
+          <t>95,35; 100,0</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>93,43; 100,0</t>
+          <t>93,56; 100,0</t>
         </is>
       </c>
     </row>
@@ -1240,42 +1240,42 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>98,28; 100,0</t>
+          <t>98,32; 100,0</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>96,8; 100,0</t>
+          <t>96,74; 100,0</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>95,21; 100,0</t>
+          <t>95,09; 100,0</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>97,2; 99,62</t>
+          <t>97,25; 99,62</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>95,54; 99,24</t>
+          <t>95,73; 99,34</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>97,3; 100,0</t>
+          <t>96,9; 100,0</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>97,93; 99,61</t>
+          <t>98,01; 99,64</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>96,89; 99,17</t>
+          <t>96,94; 99,31</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P16B97-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P16B97-Habitat-trans_dic.xlsx
@@ -572,7 +572,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -587,7 +587,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="I2" s="3" t="inlineStr">
@@ -602,7 +602,7 @@
       </c>
       <c r="K2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
     </row>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -690,7 +690,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>73,52; 100,0</t>
+          <t>69,38; 100,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -720,7 +720,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>86,33; 100,0</t>
+          <t>85,91; 100,0</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -732,7 +732,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -815,12 +815,12 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>94,04; 100,0</t>
+          <t>94,71; 100,0</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>90,17; 100,0</t>
+          <t>91,24; 100,0</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -830,19 +830,19 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>96,16; 100,0</t>
+          <t>96,46; 100,0</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>94,62; 100,0</t>
+          <t>94,36; 100,0</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -915,12 +915,12 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>91,18; 100,0</t>
+          <t>91,35; 100,0</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>90,92; 100,0</t>
+          <t>88,73; 100,0</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -930,12 +930,12 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>93,08; 100,0</t>
+          <t>93,38; 100,0</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>92,22; 100,0</t>
+          <t>91,12; 100,0</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -945,14 +945,14 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>94,57; 99,43</t>
+          <t>94,81; 99,43</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1020,7 +1020,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>92,87; 100,0</t>
+          <t>92,13; 100,0</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1035,12 +1035,12 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>90,55; 100,0</t>
+          <t>91,49; 100,0</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>91,53; 100,0</t>
+          <t>91,1; 100,0</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1050,12 +1050,12 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>93,74; 99,47</t>
+          <t>92,73; 99,47</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>94,92; 100,0</t>
+          <t>95,4; 100,0</t>
         </is>
       </c>
     </row>
@@ -1140,32 +1140,32 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>85,89; 100,0</t>
+          <t>85,81; 100,0</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>93,79; 100,0</t>
+          <t>94,4; 100,0</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>91,69; 100,0</t>
+          <t>91,05; 100,0</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>92,11; 100,0</t>
+          <t>92,51; 100,0</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>95,35; 100,0</t>
+          <t>96,14; 100,0</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>93,56; 100,0</t>
+          <t>94,15; 100,0</t>
         </is>
       </c>
     </row>
@@ -1240,27 +1240,27 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>98,32; 100,0</t>
+          <t>98,36; 100,0</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>96,74; 100,0</t>
+          <t>96,89; 100,0</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>95,09; 100,0</t>
+          <t>94,73; 100,0</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>97,25; 99,62</t>
+          <t>97,1; 99,59</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>95,73; 99,34</t>
+          <t>95,54; 99,26</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1270,12 +1270,12 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>98,01; 99,64</t>
+          <t>97,66; 99,57</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>96,94; 99,31</t>
+          <t>97,03; 99,26</t>
         </is>
       </c>
     </row>
